--- a/data/trans_orig/Q61A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de meses que lleva en paro</t>
+          <t>Número medio de meses que lleva en paro</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,31</t>
+          <t>2,75; 6,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 19,82</t>
+          <t>12,63; 19,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 30,91</t>
+          <t>18,17; 30,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 26,51</t>
+          <t>10,14; 27,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,29</t>
+          <t>1,98; 4,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 21,6</t>
+          <t>9,0; 22,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 23,24</t>
+          <t>9,59; 21,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 32,58</t>
+          <t>16,74; 33,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,07</t>
+          <t>2,81; 5,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,84</t>
+          <t>12,46; 18,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,93; 24,84</t>
+          <t>16,05; 24,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 28,8</t>
+          <t>15,83; 28,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,75</t>
+          <t>4,42; 9,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 19,52</t>
+          <t>13,4; 20,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 18,63</t>
+          <t>13,24; 18,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 27,72</t>
+          <t>13,37; 30,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 16,08</t>
+          <t>5,1; 16,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,46</t>
+          <t>13,84; 22,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 29,18</t>
+          <t>18,63; 29,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,34; 39,59</t>
+          <t>21,34; 39,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,2</t>
+          <t>5,31; 11,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 19,34</t>
+          <t>14,1; 19,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,88</t>
+          <t>16,65; 22,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,81; 30,69</t>
+          <t>18,51; 30,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,5</t>
+          <t>3,44; 8,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 39,34</t>
+          <t>13,46; 34,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 26,77</t>
+          <t>12,48; 26,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 36,93</t>
+          <t>16,68; 36,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 23,72</t>
+          <t>4,96; 25,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 21,68</t>
+          <t>12,99; 22,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 29,37</t>
+          <t>19,43; 30,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 34,0</t>
+          <t>13,4; 32,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 14,63</t>
+          <t>4,87; 14,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,13; 27,46</t>
+          <t>14,39; 25,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 26,44</t>
+          <t>17,55; 26,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 28,15</t>
+          <t>15,93; 27,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 46,68</t>
+          <t>3,36; 45,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 24,8</t>
+          <t>13,62; 24,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 35,48</t>
+          <t>23,76; 35,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 27,64</t>
+          <t>12,89; 25,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,47</t>
+          <t>3,95; 7,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 25,67</t>
+          <t>15,21; 25,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 37,49</t>
+          <t>23,37; 39,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 40,16</t>
+          <t>12,94; 39,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 26,0</t>
+          <t>4,33; 24,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 22,56</t>
+          <t>15,24; 22,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 34,47</t>
+          <t>25,21; 34,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 32,1</t>
+          <t>14,89; 32,94</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,87</t>
+          <t>2,42; 6,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 17,17</t>
+          <t>11,49; 17,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,65; 25,23</t>
+          <t>14,79; 24,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 47,03</t>
+          <t>9,38; 48,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,29</t>
+          <t>3,09; 8,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,54</t>
+          <t>9,91; 19,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,5; 26,78</t>
+          <t>17,65; 27,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 21,02</t>
+          <t>5,37; 21,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,72</t>
+          <t>3,2; 6,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,03</t>
+          <t>11,74; 17,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,73</t>
+          <t>17,65; 24,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 39,66</t>
+          <t>10,13; 38,54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,61</t>
+          <t>3,4; 10,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,76</t>
+          <t>6,46; 10,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,87</t>
+          <t>9,74; 17,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 25,36</t>
+          <t>9,68; 25,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 42,88</t>
+          <t>4,91; 43,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 20,54</t>
+          <t>8,89; 19,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 16,45</t>
+          <t>7,85; 16,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,06</t>
+          <t>10,92; 21,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 28,9</t>
+          <t>5,14; 25,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,27</t>
+          <t>8,78; 14,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,65</t>
+          <t>9,43; 15,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 20,08</t>
+          <t>11,31; 20,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,12</t>
+          <t>3,7; 8,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,57</t>
+          <t>12,1; 16,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 19,23</t>
+          <t>11,36; 19,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,28; 52,98</t>
+          <t>20,69; 53,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,32</t>
+          <t>4,74; 8,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,91; 33,07</t>
+          <t>17,04; 35,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,52; 28,18</t>
+          <t>14,82; 29,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,53; 47,74</t>
+          <t>25,89; 47,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,48</t>
+          <t>4,61; 7,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,56</t>
+          <t>14,85; 22,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,7; 21,82</t>
+          <t>14,0; 21,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,05; 43,23</t>
+          <t>25,81; 44,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,35</t>
+          <t>4,97; 9,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,02</t>
+          <t>11,46; 17,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,35; 22,47</t>
+          <t>16,37; 22,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,68; 20,39</t>
+          <t>12,56; 20,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,67</t>
+          <t>5,86; 9,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,12</t>
+          <t>16,75; 25,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,26; 32,13</t>
+          <t>20,52; 31,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,92</t>
+          <t>13,48; 17,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 8,9</t>
+          <t>6,06; 9,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 20,41</t>
+          <t>14,72; 20,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,13; 25,22</t>
+          <t>19,22; 25,9</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,79; 17,84</t>
+          <t>13,68; 17,87</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,57</t>
+          <t>5,02; 8,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,62</t>
+          <t>13,74; 16,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,41</t>
+          <t>18,12; 21,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,03</t>
+          <t>17,54; 25,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,24</t>
+          <t>6,37; 11,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,71</t>
+          <t>16,38; 20,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,77; 25,34</t>
+          <t>20,54; 25,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,33; 26,78</t>
+          <t>20,5; 27,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,75</t>
+          <t>5,95; 8,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15,23; 17,64</t>
+          <t>15,28; 17,63</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,55</t>
+          <t>19,8; 22,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,89</t>
+          <t>19,92; 24,68</t>
         </is>
       </c>
     </row>
